--- a/Packages/SGTE/SGTE/data/Si.xlsx
+++ b/Packages/SGTE/SGTE/data/Si.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Montanuni\Masterarbeit\4_Daten\SGTE Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Montanuni\Masterarbeit\5 Programmcodes\packages\sgte\sgte\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555CB182-9D43-4B1B-9C9C-265CC57939B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553678AB-9249-46F3-9443-ACB8C73370C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9970" yWindow="720" windowWidth="9010" windowHeight="9430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9740" yWindow="70" windowWidth="9010" windowHeight="9430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,19 +460,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,8 +503,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -533,8 +536,9 @@
         <v>1687</v>
       </c>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -559,8 +563,9 @@
       <c r="J3" s="4">
         <v>-4.2036900000000001E+30</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -574,7 +579,7 @@
         <v>-22.831753299999999</v>
       </c>
       <c r="E4" s="4">
-        <v>-1912.904</v>
+        <v>-1.912904E-3</v>
       </c>
       <c r="F4" s="4">
         <v>-3.5520000000000001E-9</v>
@@ -589,8 +594,11 @@
         <v>1687</v>
       </c>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="4">
+        <v>2.0930700000000001E-21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -613,8 +621,9 @@
         <v>3600</v>
       </c>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -643,7 +652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -666,7 +675,7 @@
         <v>-4.2036900000000001E+30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -695,7 +704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -718,7 +727,7 @@
         <v>-4.2036900000000001E+30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -747,7 +756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -770,7 +779,7 @@
         <v>-4.2036900000000001E+30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -799,7 +808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -822,7 +831,7 @@
         <v>-4.2036900000000001E+30</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -851,7 +860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -874,7 +883,7 @@
         <v>-4.2036900000000001E+30</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
